--- a/rtss-mexico/src/main/resources/agriculture/chart.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A8A5A-8512-4D94-A543-5A0F05D85C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9D412C-3580-49D9-9AFE-D61254E032B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="78465" yWindow="1920" windowWidth="30225" windowHeight="21105" activeTab="1" xr2:uid="{865C0A8B-0815-4AC5-8F15-FB8E7CA5946D}"/>
+    <workbookView xWindow="60045" yWindow="1995" windowWidth="30225" windowHeight="21105" activeTab="1" xr2:uid="{865C0A8B-0815-4AC5-8F15-FB8E7CA5946D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>ккал</t>
   </si>
   <si>
-    <t>поправка</t>
-  </si>
-  <si>
     <t>ФАО
 растит.</t>
   </si>
@@ -66,6 +63,11 @@
   <si>
     <t>ФАО,
 % растит.</t>
+  </si>
+  <si>
+    <t>добавленная
+поправка (%) на неполноту
+данных</t>
   </si>
 </sst>
 </file>
@@ -453,214 +455,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>3128</c:v>
+                  <c:v>2545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3049</c:v>
+                  <c:v>2478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2465</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2497</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2487</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2313</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2331</c:v>
+                  <c:v>1903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2192</c:v>
+                  <c:v>1788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2163</c:v>
+                  <c:v>1771</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2688</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2803</c:v>
+                  <c:v>2293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2487</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2013</c:v>
+                  <c:v>1663</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2210</c:v>
+                  <c:v>1826</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2034</c:v>
+                  <c:v>1679</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2035</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1555</c:v>
+                  <c:v>1299</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1503</c:v>
+                  <c:v>1255</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2004</c:v>
+                  <c:v>1659</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1715</c:v>
+                  <c:v>1417</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1656</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1521</c:v>
+                  <c:v>1268</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1515</c:v>
+                  <c:v>1266</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1586</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1522</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1625</c:v>
+                  <c:v>1362</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1847</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1581</c:v>
+                  <c:v>1327</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1963</c:v>
+                  <c:v>1640</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2032</c:v>
+                  <c:v>1686</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1725</c:v>
+                  <c:v>1447</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2070</c:v>
+                  <c:v>1727</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1877</c:v>
+                  <c:v>1564</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1853</c:v>
+                  <c:v>1546</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1953</c:v>
+                  <c:v>1618</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2075</c:v>
+                  <c:v>1713</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2051</c:v>
+                  <c:v>1687</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2201</c:v>
+                  <c:v>1812</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2266</c:v>
+                  <c:v>1864</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2112</c:v>
+                  <c:v>1741</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2345</c:v>
+                  <c:v>1932</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2486</c:v>
+                  <c:v>2059</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2408</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2527</c:v>
+                  <c:v>2105</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2780</c:v>
+                  <c:v>2315</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2987</c:v>
+                  <c:v>2445</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2843</c:v>
+                  <c:v>2327</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2598</c:v>
+                  <c:v>2131</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2924</c:v>
+                  <c:v>2367</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2936</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3215</c:v>
+                  <c:v>2578</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3387</c:v>
+                  <c:v>2720</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3248</c:v>
+                  <c:v>2583</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3573</c:v>
+                  <c:v>2750</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3269</c:v>
+                  <c:v>2539</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3452</c:v>
+                  <c:v>2559</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3376</c:v>
+                  <c:v>2456</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3863</c:v>
+                  <c:v>2815</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3667</c:v>
+                  <c:v>2712</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3515</c:v>
+                  <c:v>2548</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3818</c:v>
+                  <c:v>2751</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3909</c:v>
+                  <c:v>2769</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4285</c:v>
+                  <c:v>2954</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3617</c:v>
+                  <c:v>2546</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4209</c:v>
+                  <c:v>2923</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4327</c:v>
+                  <c:v>3061</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3772</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5105</c:v>
+                  <c:v>3493</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5638</c:v>
+                  <c:v>3733</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4427</c:v>
+                  <c:v>3014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,21 +1750,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99173D6-D9BF-495A-A9BE-6D28716A6DF5}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B50" sqref="B50:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="17.41796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1770,10 +1775,10 @@
         <v>1897</v>
       </c>
       <c r="B2">
-        <v>3128</v>
+        <v>2545</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1781,10 +1786,10 @@
         <v>1898</v>
       </c>
       <c r="B3">
-        <v>3049</v>
+        <v>2478</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1792,10 +1797,10 @@
         <v>1899</v>
       </c>
       <c r="B4">
-        <v>2465</v>
+        <v>1993</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1803,10 +1808,10 @@
         <v>1900</v>
       </c>
       <c r="B5">
-        <v>2497</v>
+        <v>2035</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1814,10 +1819,10 @@
         <v>1901</v>
       </c>
       <c r="B6">
-        <v>2487</v>
+        <v>2038</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1825,10 +1830,10 @@
         <v>1902</v>
       </c>
       <c r="B7">
-        <v>2313</v>
+        <v>1900</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1836,10 +1841,10 @@
         <v>1903</v>
       </c>
       <c r="B8">
-        <v>2331</v>
+        <v>1903</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1847,10 +1852,10 @@
         <v>1904</v>
       </c>
       <c r="B9">
-        <v>2192</v>
+        <v>1788</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1858,10 +1863,10 @@
         <v>1905</v>
       </c>
       <c r="B10">
-        <v>2163</v>
+        <v>1771</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1869,10 +1874,10 @@
         <v>1906</v>
       </c>
       <c r="B11">
-        <v>2688</v>
+        <v>2200</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1880,10 +1885,10 @@
         <v>1907</v>
       </c>
       <c r="B12">
-        <v>2803</v>
+        <v>2293</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1891,10 +1896,10 @@
         <v>1908</v>
       </c>
       <c r="B13">
-        <v>2487</v>
+        <v>2042</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1902,7 +1907,7 @@
         <v>1925</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>1663</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1913,7 +1918,7 @@
         <v>1926</v>
       </c>
       <c r="B15">
-        <v>2210</v>
+        <v>1826</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1924,7 +1929,7 @@
         <v>1927</v>
       </c>
       <c r="B16">
-        <v>2034</v>
+        <v>1679</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1935,7 +1940,7 @@
         <v>1928</v>
       </c>
       <c r="B17">
-        <v>2035</v>
+        <v>1680</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1946,7 +1951,7 @@
         <v>1929</v>
       </c>
       <c r="B18">
-        <v>1555</v>
+        <v>1299</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1957,7 +1962,7 @@
         <v>1930</v>
       </c>
       <c r="B19">
-        <v>1503</v>
+        <v>1255</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1968,7 +1973,7 @@
         <v>1931</v>
       </c>
       <c r="B20">
-        <v>2004</v>
+        <v>1659</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1979,7 +1984,7 @@
         <v>1932</v>
       </c>
       <c r="B21">
-        <v>1715</v>
+        <v>1417</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1990,7 +1995,7 @@
         <v>1933</v>
       </c>
       <c r="B22">
-        <v>1656</v>
+        <v>1363</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2001,7 +2006,7 @@
         <v>1934</v>
       </c>
       <c r="B23">
-        <v>1521</v>
+        <v>1268</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2012,7 +2017,7 @@
         <v>1935</v>
       </c>
       <c r="B24">
-        <v>1515</v>
+        <v>1266</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2023,7 +2028,7 @@
         <v>1936</v>
       </c>
       <c r="B25">
-        <v>1586</v>
+        <v>1330</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2034,7 +2039,7 @@
         <v>1937</v>
       </c>
       <c r="B26">
-        <v>1522</v>
+        <v>1275</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2045,7 +2050,7 @@
         <v>1938</v>
       </c>
       <c r="B27">
-        <v>1625</v>
+        <v>1362</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2056,7 +2061,7 @@
         <v>1939</v>
       </c>
       <c r="B28">
-        <v>1847</v>
+        <v>1545</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2067,7 +2072,7 @@
         <v>1940</v>
       </c>
       <c r="B29">
-        <v>1581</v>
+        <v>1327</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2078,7 +2083,7 @@
         <v>1941</v>
       </c>
       <c r="B30">
-        <v>1963</v>
+        <v>1640</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2089,7 +2094,7 @@
         <v>1942</v>
       </c>
       <c r="B31">
-        <v>2032</v>
+        <v>1686</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2100,7 +2105,7 @@
         <v>1943</v>
       </c>
       <c r="B32">
-        <v>1725</v>
+        <v>1447</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2111,7 +2116,7 @@
         <v>1944</v>
       </c>
       <c r="B33">
-        <v>2070</v>
+        <v>1727</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2122,7 +2127,7 @@
         <v>1945</v>
       </c>
       <c r="B34">
-        <v>1877</v>
+        <v>1564</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2133,7 +2138,7 @@
         <v>1946</v>
       </c>
       <c r="B35">
-        <v>1853</v>
+        <v>1546</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2144,7 +2149,7 @@
         <v>1947</v>
       </c>
       <c r="B36">
-        <v>1953</v>
+        <v>1618</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2155,7 +2160,7 @@
         <v>1948</v>
       </c>
       <c r="B37">
-        <v>2075</v>
+        <v>1713</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2166,7 +2171,7 @@
         <v>1949</v>
       </c>
       <c r="B38">
-        <v>2051</v>
+        <v>1687</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2177,7 +2182,7 @@
         <v>1950</v>
       </c>
       <c r="B39">
-        <v>2201</v>
+        <v>1812</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2188,7 +2193,7 @@
         <v>1951</v>
       </c>
       <c r="B40">
-        <v>2266</v>
+        <v>1864</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2199,7 +2204,7 @@
         <v>1952</v>
       </c>
       <c r="B41">
-        <v>2112</v>
+        <v>1741</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2210,7 +2215,7 @@
         <v>1953</v>
       </c>
       <c r="B42">
-        <v>2345</v>
+        <v>1932</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2221,7 +2226,7 @@
         <v>1954</v>
       </c>
       <c r="B43">
-        <v>2486</v>
+        <v>2059</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2232,7 +2237,7 @@
         <v>1955</v>
       </c>
       <c r="B44">
-        <v>2408</v>
+        <v>2000</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2243,7 +2248,7 @@
         <v>1956</v>
       </c>
       <c r="B45">
-        <v>2527</v>
+        <v>2105</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2254,7 +2259,7 @@
         <v>1957</v>
       </c>
       <c r="B46">
-        <v>2780</v>
+        <v>2315</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2265,7 +2270,7 @@
         <v>1958</v>
       </c>
       <c r="B47">
-        <v>2987</v>
+        <v>2445</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2276,7 +2281,7 @@
         <v>1959</v>
       </c>
       <c r="B48">
-        <v>2843</v>
+        <v>2327</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2287,7 +2292,7 @@
         <v>1960</v>
       </c>
       <c r="B49">
-        <v>2598</v>
+        <v>2131</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2298,7 +2303,7 @@
         <v>1961</v>
       </c>
       <c r="B50">
-        <v>2924</v>
+        <v>2367</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2309,7 +2314,7 @@
         <v>1962</v>
       </c>
       <c r="B51">
-        <v>2936</v>
+        <v>2380</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2320,7 +2325,7 @@
         <v>1963</v>
       </c>
       <c r="B52">
-        <v>3215</v>
+        <v>2578</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2331,7 +2336,7 @@
         <v>1964</v>
       </c>
       <c r="B53">
-        <v>3387</v>
+        <v>2720</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2342,7 +2347,7 @@
         <v>1965</v>
       </c>
       <c r="B54">
-        <v>3248</v>
+        <v>2583</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2353,7 +2358,7 @@
         <v>1966</v>
       </c>
       <c r="B55">
-        <v>3573</v>
+        <v>2750</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2364,7 +2369,7 @@
         <v>1967</v>
       </c>
       <c r="B56">
-        <v>3269</v>
+        <v>2539</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2375,7 +2380,7 @@
         <v>1968</v>
       </c>
       <c r="B57">
-        <v>3452</v>
+        <v>2559</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2386,7 +2391,7 @@
         <v>1969</v>
       </c>
       <c r="B58">
-        <v>3376</v>
+        <v>2456</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2397,7 +2402,7 @@
         <v>1970</v>
       </c>
       <c r="B59">
-        <v>3863</v>
+        <v>2815</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2408,7 +2413,7 @@
         <v>1971</v>
       </c>
       <c r="B60">
-        <v>3667</v>
+        <v>2712</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2419,7 +2424,7 @@
         <v>1972</v>
       </c>
       <c r="B61">
-        <v>3515</v>
+        <v>2548</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2430,7 +2435,7 @@
         <v>1973</v>
       </c>
       <c r="B62">
-        <v>3818</v>
+        <v>2751</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2441,7 +2446,7 @@
         <v>1974</v>
       </c>
       <c r="B63">
-        <v>3909</v>
+        <v>2769</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2452,7 +2457,7 @@
         <v>1975</v>
       </c>
       <c r="B64">
-        <v>4285</v>
+        <v>2954</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2463,7 +2468,7 @@
         <v>1976</v>
       </c>
       <c r="B65">
-        <v>3617</v>
+        <v>2546</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2474,7 +2479,7 @@
         <v>1977</v>
       </c>
       <c r="B66">
-        <v>4209</v>
+        <v>2923</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2485,7 +2490,7 @@
         <v>1978</v>
       </c>
       <c r="B67">
-        <v>4327</v>
+        <v>3061</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2496,7 +2501,7 @@
         <v>1979</v>
       </c>
       <c r="B68">
-        <v>3772</v>
+        <v>2600</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2507,7 +2512,7 @@
         <v>1980</v>
       </c>
       <c r="B69">
-        <v>5105</v>
+        <v>3493</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2518,7 +2523,7 @@
         <v>1981</v>
       </c>
       <c r="B70">
-        <v>5638</v>
+        <v>3733</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2529,7 +2534,7 @@
         <v>1982</v>
       </c>
       <c r="B71">
-        <v>4427</v>
+        <v>3014</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2543,40 +2548,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB607F9C-327D-4AEA-BD2C-BE62236D4A8A}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1961</v>
       </c>
       <c r="B2" s="2">
-        <v>2924</v>
+        <v>2367</v>
       </c>
       <c r="C2" s="2">
         <v>2078</v>
@@ -2590,13 +2595,14 @@
       <c r="F2" s="1">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1962</v>
       </c>
       <c r="B3" s="2">
-        <v>2936</v>
+        <v>2380</v>
       </c>
       <c r="C3" s="2">
         <v>2064</v>
@@ -2610,13 +2616,14 @@
       <c r="F3" s="1">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1963</v>
       </c>
       <c r="B4" s="2">
-        <v>3215</v>
+        <v>2578</v>
       </c>
       <c r="C4" s="2">
         <v>2080</v>
@@ -2630,13 +2637,14 @@
       <c r="F4" s="1">
         <v>87.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1964</v>
       </c>
       <c r="B5" s="2">
-        <v>3387</v>
+        <v>2720</v>
       </c>
       <c r="C5" s="2">
         <v>2134</v>
@@ -2650,13 +2658,14 @@
       <c r="F5" s="1">
         <v>88.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1965</v>
       </c>
       <c r="B6" s="2">
-        <v>3248</v>
+        <v>2583</v>
       </c>
       <c r="C6" s="2">
         <v>2152</v>
@@ -2670,13 +2679,14 @@
       <c r="F6" s="1">
         <v>88.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1966</v>
       </c>
       <c r="B7" s="2">
-        <v>3573</v>
+        <v>2750</v>
       </c>
       <c r="C7" s="2">
         <v>2165</v>
@@ -2690,13 +2700,14 @@
       <c r="F7" s="1">
         <v>87.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1967</v>
       </c>
       <c r="B8" s="2">
-        <v>3269</v>
+        <v>2539</v>
       </c>
       <c r="C8" s="2">
         <v>2200</v>
@@ -2710,13 +2721,14 @@
       <c r="F8" s="1">
         <v>87.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1968</v>
       </c>
       <c r="B9" s="2">
-        <v>3452</v>
+        <v>2559</v>
       </c>
       <c r="C9" s="2">
         <v>2240</v>
@@ -2730,13 +2742,14 @@
       <c r="F9" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1969</v>
       </c>
       <c r="B10" s="2">
-        <v>3376</v>
+        <v>2456</v>
       </c>
       <c r="C10" s="2">
         <v>2251</v>
@@ -2750,13 +2763,14 @@
       <c r="F10" s="1">
         <v>87.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1970</v>
       </c>
       <c r="B11" s="2">
-        <v>3863</v>
+        <v>2815</v>
       </c>
       <c r="C11" s="2">
         <v>2270</v>
@@ -2770,13 +2784,14 @@
       <c r="F11" s="1">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1971</v>
       </c>
       <c r="B12" s="2">
-        <v>3667</v>
+        <v>2712</v>
       </c>
       <c r="C12" s="2">
         <v>2266</v>
@@ -2790,13 +2805,14 @@
       <c r="F12" s="1">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1972</v>
       </c>
       <c r="B13" s="2">
-        <v>3515</v>
+        <v>2548</v>
       </c>
       <c r="C13" s="2">
         <v>2265</v>
@@ -2810,13 +2826,14 @@
       <c r="F13" s="1">
         <v>86.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1973</v>
       </c>
       <c r="B14" s="2">
-        <v>3818</v>
+        <v>2751</v>
       </c>
       <c r="C14" s="2">
         <v>2292</v>
@@ -2830,13 +2847,14 @@
       <c r="F14" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1974</v>
       </c>
       <c r="B15" s="2">
-        <v>3909</v>
+        <v>2769</v>
       </c>
       <c r="C15" s="2">
         <v>2293</v>
@@ -2850,13 +2868,14 @@
       <c r="F15" s="1">
         <v>85.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1975</v>
       </c>
       <c r="B16" s="2">
-        <v>4285</v>
+        <v>2954</v>
       </c>
       <c r="C16" s="2">
         <v>2362</v>
@@ -2870,13 +2889,14 @@
       <c r="F16" s="1">
         <v>85.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1976</v>
       </c>
       <c r="B17" s="2">
-        <v>3617</v>
+        <v>2546</v>
       </c>
       <c r="C17" s="2">
         <v>2313</v>
@@ -2890,13 +2910,14 @@
       <c r="F17" s="1">
         <v>84.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1977</v>
       </c>
       <c r="B18" s="2">
-        <v>4209</v>
+        <v>2923</v>
       </c>
       <c r="C18" s="2">
         <v>2329</v>
@@ -2910,13 +2931,14 @@
       <c r="F18" s="1">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1978</v>
       </c>
       <c r="B19" s="2">
-        <v>4327</v>
+        <v>3061</v>
       </c>
       <c r="C19" s="2">
         <v>2397</v>
@@ -2930,13 +2952,14 @@
       <c r="F19" s="1">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1979</v>
       </c>
       <c r="B20" s="2">
-        <v>3772</v>
+        <v>2600</v>
       </c>
       <c r="C20" s="2">
         <v>2421</v>
@@ -2950,13 +2973,14 @@
       <c r="F20" s="1">
         <v>83.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>1980</v>
       </c>
       <c r="B21" s="2">
-        <v>5105</v>
+        <v>3493</v>
       </c>
       <c r="C21" s="2">
         <v>2528</v>
@@ -2970,13 +2994,14 @@
       <c r="F21" s="1">
         <v>82.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1981</v>
       </c>
       <c r="B22" s="2">
-        <v>5638</v>
+        <v>3733</v>
       </c>
       <c r="C22" s="2">
         <v>2659</v>
@@ -2990,13 +3015,14 @@
       <c r="F22" s="1">
         <v>83.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>1982</v>
       </c>
       <c r="B23" s="2">
-        <v>4427</v>
+        <v>3014</v>
       </c>
       <c r="C23" s="2">
         <v>2657</v>
@@ -3010,8 +3036,9 @@
       <c r="F23" s="1">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>1983</v>
       </c>
@@ -3029,7 +3056,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>1984</v>
       </c>
@@ -3047,7 +3074,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>1985</v>
       </c>
@@ -3065,7 +3092,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>1986</v>
       </c>
@@ -3083,7 +3110,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1987</v>
       </c>
@@ -3101,7 +3128,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>1988</v>
       </c>
@@ -3119,7 +3146,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>1989</v>
       </c>
@@ -3137,7 +3164,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>1990</v>
       </c>
@@ -3155,7 +3182,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1991</v>
       </c>

--- a/rtss-mexico/src/main/resources/agriculture/chart.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9D412C-3580-49D9-9AFE-D61254E032B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC233D-0433-4563-8A48-FC98B803F9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60045" yWindow="1995" windowWidth="30225" windowHeight="21105" activeTab="1" xr2:uid="{865C0A8B-0815-4AC5-8F15-FB8E7CA5946D}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{865C0A8B-0815-4AC5-8F15-FB8E7CA5946D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -155,37 +155,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -728,7 +698,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -740,7 +710,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1247545264"/>
@@ -790,7 +760,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -802,7 +772,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1247544784"/>
@@ -843,7 +813,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1750,16 +1720,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99173D6-D9BF-495A-A9BE-6D28716A6DF5}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B71"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.41796875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1897</v>
       </c>
@@ -1781,7 +1751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1898</v>
       </c>
@@ -1792,7 +1762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1899</v>
       </c>
@@ -1803,7 +1773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1900</v>
       </c>
@@ -1814,7 +1784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1901</v>
       </c>
@@ -1825,7 +1795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1902</v>
       </c>
@@ -1836,7 +1806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1903</v>
       </c>
@@ -1847,7 +1817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1904</v>
       </c>
@@ -1858,7 +1828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1905</v>
       </c>
@@ -1869,7 +1839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1906</v>
       </c>
@@ -1880,7 +1850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1907</v>
       </c>
@@ -1891,7 +1861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1908</v>
       </c>
@@ -1902,7 +1872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1925</v>
       </c>
@@ -1913,7 +1883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1926</v>
       </c>
@@ -1924,7 +1894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1927</v>
       </c>
@@ -1935,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1928</v>
       </c>
@@ -1946,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1929</v>
       </c>
@@ -1957,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1930</v>
       </c>
@@ -1968,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1931</v>
       </c>
@@ -1979,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1932</v>
       </c>
@@ -1990,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1933</v>
       </c>
@@ -2001,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1934</v>
       </c>
@@ -2012,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1935</v>
       </c>
@@ -2023,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1936</v>
       </c>
@@ -2034,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1937</v>
       </c>
@@ -2045,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1938</v>
       </c>
@@ -2056,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1939</v>
       </c>
@@ -2067,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1940</v>
       </c>
@@ -2078,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1941</v>
       </c>
@@ -2089,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1942</v>
       </c>
@@ -2100,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1943</v>
       </c>
@@ -2111,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1944</v>
       </c>
@@ -2122,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1945</v>
       </c>
@@ -2133,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1946</v>
       </c>
@@ -2144,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1947</v>
       </c>
@@ -2155,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1948</v>
       </c>
@@ -2166,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1949</v>
       </c>
@@ -2177,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1950</v>
       </c>
@@ -2188,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1951</v>
       </c>
@@ -2199,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1952</v>
       </c>
@@ -2210,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1953</v>
       </c>
@@ -2221,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1954</v>
       </c>
@@ -2232,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1955</v>
       </c>
@@ -2243,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1956</v>
       </c>
@@ -2254,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1957</v>
       </c>
@@ -2265,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1958</v>
       </c>
@@ -2276,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1959</v>
       </c>
@@ -2287,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1960</v>
       </c>
@@ -2298,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1961</v>
       </c>
@@ -2309,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -2320,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1963</v>
       </c>
@@ -2331,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1964</v>
       </c>
@@ -2342,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1965</v>
       </c>
@@ -2353,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1966</v>
       </c>
@@ -2364,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1967</v>
       </c>
@@ -2375,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1968</v>
       </c>
@@ -2386,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1969</v>
       </c>
@@ -2397,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1970</v>
       </c>
@@ -2408,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1971</v>
       </c>
@@ -2419,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1972</v>
       </c>
@@ -2430,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1973</v>
       </c>
@@ -2441,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1974</v>
       </c>
@@ -2452,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1975</v>
       </c>
@@ -2463,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1976</v>
       </c>
@@ -2474,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1977</v>
       </c>
@@ -2485,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1978</v>
       </c>
@@ -2496,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1979</v>
       </c>
@@ -2507,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1980</v>
       </c>
@@ -2518,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1981</v>
       </c>
@@ -2529,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1982</v>
       </c>
@@ -2550,13 +2520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB607F9C-327D-4AEA-BD2C-BE62236D4A8A}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1961</v>
       </c>
@@ -2597,7 +2567,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1962</v>
       </c>
@@ -2618,7 +2588,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1963</v>
       </c>
@@ -2639,7 +2609,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1964</v>
       </c>
@@ -2660,7 +2630,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1965</v>
       </c>
@@ -2681,7 +2651,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1966</v>
       </c>
@@ -2702,7 +2672,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1967</v>
       </c>
@@ -2723,7 +2693,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1968</v>
       </c>
@@ -2744,7 +2714,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1969</v>
       </c>
@@ -2765,7 +2735,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1970</v>
       </c>
@@ -2786,7 +2756,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1971</v>
       </c>
@@ -2807,7 +2777,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1972</v>
       </c>
@@ -2828,7 +2798,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1973</v>
       </c>
@@ -2849,7 +2819,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1974</v>
       </c>
@@ -2870,7 +2840,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1975</v>
       </c>
@@ -2891,7 +2861,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1976</v>
       </c>
@@ -2912,7 +2882,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1977</v>
       </c>
@@ -2933,7 +2903,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1978</v>
       </c>
@@ -2954,7 +2924,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1979</v>
       </c>
@@ -2975,7 +2945,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1980</v>
       </c>
@@ -2996,7 +2966,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1981</v>
       </c>
@@ -3017,7 +2987,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1982</v>
       </c>
@@ -3038,7 +3008,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1983</v>
       </c>
@@ -3056,7 +3026,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1984</v>
       </c>
@@ -3074,7 +3044,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1985</v>
       </c>
@@ -3092,7 +3062,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1986</v>
       </c>
@@ -3110,7 +3080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1987</v>
       </c>
@@ -3128,7 +3098,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1988</v>
       </c>
@@ -3146,7 +3116,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1989</v>
       </c>
@@ -3164,7 +3134,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1990</v>
       </c>
@@ -3182,7 +3152,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1991</v>
       </c>
@@ -3200,7 +3170,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1992</v>
       </c>
@@ -3218,7 +3188,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1993</v>
       </c>
@@ -3236,7 +3206,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1994</v>
       </c>
@@ -3254,7 +3224,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1995</v>
       </c>
@@ -3272,7 +3242,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1996</v>
       </c>
@@ -3290,7 +3260,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1997</v>
       </c>
@@ -3308,7 +3278,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1998</v>
       </c>
@@ -3326,7 +3296,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1999</v>
       </c>
@@ -3344,7 +3314,7 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2000</v>
       </c>
@@ -3362,7 +3332,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2001</v>
       </c>
@@ -3380,7 +3350,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2002</v>
       </c>
@@ -3398,7 +3368,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2003</v>
       </c>
@@ -3416,7 +3386,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2004</v>
       </c>
@@ -3434,7 +3404,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2005</v>
       </c>
@@ -3452,7 +3422,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2006</v>
       </c>
@@ -3470,7 +3440,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2007</v>
       </c>
@@ -3488,7 +3458,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2008</v>
       </c>
@@ -3506,7 +3476,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2009</v>
       </c>
@@ -3524,7 +3494,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2010</v>
       </c>
@@ -3542,7 +3512,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2011</v>
       </c>
@@ -3560,7 +3530,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2012</v>
       </c>
@@ -3578,7 +3548,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2013</v>
       </c>
@@ -3596,7 +3566,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
